--- a/consolidando_python_excel/Arquivo Consolidado.xlsx
+++ b/consolidando_python_excel/Arquivo Consolidado.xlsx
@@ -1,111 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dados Consolidados" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
-  <si>
-    <t>Vendedor</t>
-  </si>
-  <si>
-    <t>Produtos</t>
-  </si>
-  <si>
-    <t>Vendas</t>
-  </si>
-  <si>
-    <t>Amanda Martins</t>
-  </si>
-  <si>
-    <t>Eliane Moreira</t>
-  </si>
-  <si>
-    <t>Leonardo Almeida</t>
-  </si>
-  <si>
-    <t>Nicolas Pereira</t>
-  </si>
-  <si>
-    <t>Bolsa de Trabalho</t>
-  </si>
-  <si>
-    <t>Camisa Térmica</t>
-  </si>
-  <si>
-    <t>Calça Feminina Jogger</t>
-  </si>
-  <si>
-    <t>Bota Masculina</t>
-  </si>
-  <si>
-    <t>Vestido Infantil</t>
-  </si>
-  <si>
-    <t>Calça Bailarina</t>
-  </si>
-  <si>
-    <t>Sapatilha Sapato</t>
-  </si>
-  <si>
-    <t>Tênis Feminino</t>
-  </si>
-  <si>
-    <t>Bermuda Masculino</t>
-  </si>
-  <si>
-    <t>Camisa Masculina Festa Balada</t>
-  </si>
-  <si>
-    <t>Kit de Pinceis de Maquiagem</t>
-  </si>
-  <si>
-    <t>Sapato Social</t>
-  </si>
-  <si>
-    <t>Camisa Masculina</t>
-  </si>
-  <si>
-    <t>Jaqueta Masculina Preta</t>
-  </si>
-  <si>
-    <t>Colar Pingente</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -139,16 +69,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -436,231 +433,857 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="35" customWidth="1" min="1" max="1"/>
+    <col width="40" customWidth="1" min="2" max="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Vendedor</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Produtos</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Vendas</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Amanda Martins</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Bolsa de Trabalho</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>248.73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Amanda Martins</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Camisa Térmica</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>41.9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Amanda Martins</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bolsa de Trabalho</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>248.73</v>
+      </c>
+      <c r="D4" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Amanda Martins</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Camisa Térmica</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="D5" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Amanda Martins</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bolsa de Trabalho</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>248.73</v>
+      </c>
+      <c r="D6" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
+      <c r="E6" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Amanda Martins</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Camisa Térmica</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="D7" t="n">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Eliane Moreira</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Calça Feminina Jogger</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>69.98999999999999</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Eliane Moreira</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bota Masculina</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>224.14</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Eliane Moreira</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Vestido Infantil</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>59.9</v>
+      </c>
+      <c r="D10" t="n">
+        <v>6</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Eliane Moreira</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Calça Bailarina</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="D11" t="n">
         <v>7</v>
       </c>
-      <c r="D2">
-        <v>248.73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Eliane Moreira</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Sapatilha Sapato</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="D12" t="n">
         <v>8</v>
       </c>
-      <c r="D3">
-        <v>41.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Leonardo Almeida</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Tênis Feminino</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>89.98999999999999</v>
+      </c>
+      <c r="D13" t="n">
         <v>9</v>
       </c>
-      <c r="D4">
+      <c r="E13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Leonardo Almeida</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Bermuda Masculino</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>148.56</v>
+      </c>
+      <c r="D14" t="n">
+        <v>10</v>
+      </c>
+      <c r="E14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Leonardo Almeida</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Camisa Masculina Festa Balada</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>146.14</v>
+      </c>
+      <c r="D15" t="n">
+        <v>11</v>
+      </c>
+      <c r="E15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Leonardo Almeida</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Kit de Pinceis de Maquiagem</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>116.52</v>
+      </c>
+      <c r="D16" t="n">
+        <v>12</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Leonardo Almeida</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Sapato Social</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="D17" t="n">
+        <v>13</v>
+      </c>
+      <c r="E17" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Nicolas Pereira</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Camisa Masculina</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>14</v>
+      </c>
+      <c r="E18" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Nicolas Pereira</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Jaqueta Masculina Preta</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>150.5</v>
+      </c>
+      <c r="D19" t="n">
+        <v>15</v>
+      </c>
+      <c r="E19" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Nicolas Pereira</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Colar Pingente</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="D20" t="n">
+        <v>16</v>
+      </c>
+      <c r="E20" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Eliane Moreira</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Calça Feminina Jogger</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
         <v>69.98999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5">
+      <c r="D21" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Eliane Moreira</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Bota Masculina</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
         <v>224.14</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6">
+      <c r="D22" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Eliane Moreira</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Vestido Infantil</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
         <v>59.9</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7">
+      <c r="D23" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Eliane Moreira</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Calça Bailarina</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
         <v>46.9</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8">
+      <c r="D24" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Eliane Moreira</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Sapatilha Sapato</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
         <v>55.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9">
+      <c r="D25" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Leonardo Almeida</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Tênis Feminino</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
         <v>89.98999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10">
+      <c r="D26" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Leonardo Almeida</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Bermuda Masculino</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
         <v>148.56</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11">
+      <c r="D27" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Leonardo Almeida</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Camisa Masculina Festa Balada</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
         <v>146.14</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12">
+      <c r="D28" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Leonardo Almeida</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Kit de Pinceis de Maquiagem</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
         <v>116.52</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13">
+      <c r="D29" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Leonardo Almeida</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Sapato Social</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
         <v>81.90000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14">
+      <c r="D30" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Nicolas Pereira</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Camisa Masculina</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
         <v>153.4</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15">
+      <c r="D31" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Nicolas Pereira</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Jaqueta Masculina Preta</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
         <v>150.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16">
+      <c r="D32" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Nicolas Pereira</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Colar Pingente</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="D33" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Eliane Moreira</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Calça Feminina Jogger</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>69.98999999999999</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Eliane Moreira</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Bota Masculina</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>224.14</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Eliane Moreira</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Vestido Infantil</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Eliane Moreira</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Calça Bailarina</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>46.9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Eliane Moreira</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Sapatilha Sapato</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>55.9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Leonardo Almeida</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Tênis Feminino</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>89.98999999999999</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Leonardo Almeida</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Bermuda Masculino</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>148.56</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Leonardo Almeida</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Camisa Masculina Festa Balada</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>146.14</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Leonardo Almeida</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Kit de Pinceis de Maquiagem</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>116.52</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Leonardo Almeida</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Sapato Social</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>81.90000000000001</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Nicolas Pereira</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Camisa Masculina</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>153.4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Nicolas Pereira</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Jaqueta Masculina Preta</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>150.5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Nicolas Pereira</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Colar Pingente</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
         <v>89.90000000000001</v>
       </c>
     </row>
